--- a/biology/Histoire de la zoologie et de la botanique/Edmond_Bonnet/Edmond_Bonnet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edmond_Bonnet/Edmond_Bonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond Jean-Jacques Bonnet, né le 8 avril 1848 à Beaune (Côte-d'Or) et décédé le 3 octobre 1922 à Paris est un médecin, botaniste, entomologiste, paléontologue, historien des sciences français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de droit, puis de médecine à Dijon puis à Paris, Edmond Bonnet obtient le titre de docteur à la faculté de médecine en 1876. Il devient préparateur de la chaire de botanique du Muséum d'histoire naturelle sous l'égide du professeur Bureau en 1877.
 Il participe, en 1883, à la commission chargée d’étudier l’histoire naturelle de la Tunisie, dont le protectorat français venait d’être établi, sous la direction d'Ernest Cosson et à laquelle participent Paul-Napoléon Doumet-Adanson (1834-1897), Victor Constant Reboud (1821-1889) et Aristide-Horace Letourneux (1820-1890). En 1888, il participe à celle du Sud oranais.
-Il est vice-secrétaire de la Société botanique de France. Il est assistant au Muséum de Lyon en 1906.  Il prend sa retraite en 1914[1].
+Il est vice-secrétaire de la Société botanique de France. Il est assistant au Muséum de Lyon en 1906.  Il prend sa retraite en 1914.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>E. Bonnet et A. Finot (d), Catalogue raisonné des orthoptères de la régence de Tunis, 1885.
 Künckel d'Herculais M.-J. et Bonnet Edmond, 1914. Jubilé de M. Edmond Bonnet, 28 mai 1914. Mâcon, impr. de Protat frères, 18 p.
